--- a/Data_process/碳足迹/all_element_carbon.xlsx
+++ b/Data_process/碳足迹/all_element_carbon.xlsx
@@ -8567,7 +8567,7 @@
         <v>3</v>
       </c>
       <c r="AE85" t="n">
-        <v>216.24</v>
+        <v>0.5496</v>
       </c>
     </row>
     <row r="86">
@@ -9422,7 +9422,7 @@
         <v>3</v>
       </c>
       <c r="AE94" t="n">
-        <v>216.24</v>
+        <v>0.5496</v>
       </c>
     </row>
     <row r="95">
@@ -9802,7 +9802,7 @@
         <v>3</v>
       </c>
       <c r="AE98" t="n">
-        <v>216.24</v>
+        <v>0.5496</v>
       </c>
     </row>
     <row r="99">
@@ -12747,7 +12747,7 @@
         <v>3</v>
       </c>
       <c r="AE129" t="n">
-        <v>216.24</v>
+        <v>0.5496</v>
       </c>
     </row>
     <row r="130">
@@ -20727,7 +20727,7 @@
         <v>3</v>
       </c>
       <c r="AE213" t="n">
-        <v>216.24</v>
+        <v>0.5496</v>
       </c>
     </row>
     <row r="214">
@@ -32887,7 +32887,7 @@
         <v>3</v>
       </c>
       <c r="AE341" t="n">
-        <v>216.24</v>
+        <v>0.5496</v>
       </c>
     </row>
     <row r="342">

--- a/Data_process/碳足迹/all_element_carbon.xlsx
+++ b/Data_process/碳足迹/all_element_carbon.xlsx
@@ -637,10 +637,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R2" t="n">
         <v>0.0004897959183673469</v>
@@ -732,10 +732,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P3" t="n">
-        <v>14.5376</v>
+        <v>3.6344</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.9648</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="R3" t="n">
         <v>0.003918367346938775</v>
@@ -827,10 +827,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P4" t="n">
-        <v>7.929600000000001</v>
+        <v>1.58592</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.13216</v>
       </c>
       <c r="R4" t="n">
         <v>0.004897959183673469</v>
@@ -922,10 +922,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P5" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P6" t="n">
-        <v>2.77536</v>
+        <v>0.69384</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.05728</v>
+        <v>0.2643200000000001</v>
       </c>
       <c r="R6" t="n">
         <v>0.001469387755102041</v>
@@ -1112,10 +1112,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P7" t="n">
-        <v>8.590400000000001</v>
+        <v>1.71808</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3304</v>
+        <v>0.06608</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P9" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R9" t="n">
         <v>0.007346938775510204</v>
@@ -1397,10 +1397,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P10" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R10" t="n">
         <v>0.003918367346938775</v>
@@ -1492,10 +1492,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P11" t="n">
-        <v>7.929600000000001</v>
+        <v>1.58592</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9824</v>
+        <v>0.3964800000000001</v>
       </c>
       <c r="R11" t="n">
         <v>0.001469387755102041</v>
@@ -1587,10 +1587,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P12" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="R12" t="n">
         <v>0.004897959183673469</v>
@@ -1682,10 +1682,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P13" t="n">
-        <v>10.5728</v>
+        <v>2.6432</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R13" t="n">
         <v>0.002448979591836735</v>
@@ -1777,10 +1777,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P14" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R14" t="n">
         <v>0.004897959183673469</v>
@@ -1872,10 +1872,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P15" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R15" t="n">
         <v>0.004897959183673469</v>
@@ -1967,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>7.929600000000001</v>
+        <v>1.58592</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.9472</v>
+        <v>1.18944</v>
       </c>
       <c r="R16" t="n">
         <v>0.004897959183673469</v>
@@ -2062,10 +2062,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P17" t="n">
-        <v>7.929600000000001</v>
+        <v>1.58592</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.6256</v>
+        <v>0.9251200000000001</v>
       </c>
       <c r="R17" t="n">
         <v>0.0108734693877551</v>
@@ -2157,10 +2157,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P18" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R18" t="n">
         <v>0.003918367346938775</v>
@@ -2252,10 +2252,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P19" t="n">
-        <v>8.590400000000001</v>
+        <v>2.1476</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R19" t="n">
         <v>0.002448979591836735</v>
@@ -2347,10 +2347,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P20" t="n">
-        <v>13.216</v>
+        <v>2.6432</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.304</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R20" t="n">
         <v>0.009306122448979591</v>
@@ -2442,10 +2442,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P21" t="n">
-        <v>13.216</v>
+        <v>2.6432</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.9824</v>
+        <v>0.3964800000000001</v>
       </c>
       <c r="R21" t="n">
         <v>0.003918367346938775</v>
@@ -2537,10 +2537,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P22" t="n">
-        <v>9.911999999999999</v>
+        <v>1.9824</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.3216</v>
+        <v>0.26432</v>
       </c>
       <c r="R22" t="n">
         <v>0.0004897959183673469</v>
@@ -2632,10 +2632,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P23" t="n">
-        <v>4.6256</v>
+        <v>1.1564</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P24" t="n">
-        <v>6.608</v>
+        <v>1.3216</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.304</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2822,10 +2822,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P25" t="n">
-        <v>8.352512000000001</v>
+        <v>2.088128</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.343679999999999</v>
+        <v>1.58592</v>
       </c>
       <c r="R25" t="n">
         <v>0.001175510204081633</v>
@@ -2917,10 +2917,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P26" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P27" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P28" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.6256</v>
+        <v>1.1564</v>
       </c>
       <c r="R28" t="n">
         <v>0.002448979591836735</v>
@@ -3202,10 +3202,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P29" t="n">
-        <v>11.2336</v>
+        <v>2.24672</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.9824</v>
+        <v>0.3964800000000001</v>
       </c>
       <c r="R29" t="n">
         <v>0.003918367346938775</v>
@@ -3297,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>10.5728</v>
+        <v>2.11456</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.9824</v>
+        <v>0.3964800000000001</v>
       </c>
       <c r="R30" t="n">
         <v>0.003918367346938775</v>
@@ -3392,10 +3392,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P31" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R31" t="n">
         <v>0.002448979591836735</v>
@@ -3487,10 +3487,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P32" t="n">
-        <v>5.6168</v>
+        <v>1.4042</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.652</v>
+        <v>0.413</v>
       </c>
       <c r="R32" t="n">
         <v>0.001469387755102041</v>
@@ -3582,10 +3582,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P33" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="R33" t="n">
         <v>0.009795918367346938</v>
@@ -3677,10 +3677,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P34" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3772,10 +3772,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P35" t="n">
-        <v>7.268800000000001</v>
+        <v>1.8172</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R35" t="n">
         <v>0.003918367346938775</v>
@@ -3867,10 +3867,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P36" t="n">
-        <v>7.268800000000001</v>
+        <v>1.8172</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R36" t="n">
         <v>0.009795918367346938</v>
@@ -3962,10 +3962,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P37" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R37" t="n">
         <v>0.003918367346938775</v>
@@ -4057,10 +4057,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P38" t="n">
-        <v>11.2336</v>
+        <v>2.8084</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R38" t="n">
         <v>0.002448979591836735</v>
@@ -4152,10 +4152,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P39" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R39" t="n">
         <v>0.004897959183673469</v>
@@ -4247,10 +4247,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P40" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R40" t="n">
         <v>0.004897959183673469</v>
@@ -4342,10 +4342,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P41" t="n">
-        <v>8.85472</v>
+        <v>2.21368</v>
       </c>
       <c r="Q41" t="n">
-        <v>5.742351999999999</v>
+        <v>1.435588</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -4437,10 +4437,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P42" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.9648</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="R42" t="n">
         <v>0.002448979591836735</v>
@@ -4532,10 +4532,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P43" t="n">
-        <v>11.094832</v>
+        <v>2.2189664</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.407504</v>
+        <v>0.2815008</v>
       </c>
       <c r="R43" t="n">
         <v>0.004897959183673469</v>
@@ -4627,10 +4627,10 @@
         <v>0.05753424657534246</v>
       </c>
       <c r="P44" t="n">
-        <v>10.5728</v>
+        <v>2.11456</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.3216</v>
+        <v>0.26432</v>
       </c>
       <c r="R44" t="n">
         <v>0.002448979591836735</v>
@@ -4722,10 +4722,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P45" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.9648</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="R45" t="n">
         <v>0.004897959183673469</v>
@@ -4817,10 +4817,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P46" t="n">
-        <v>9.5816</v>
+        <v>2.3954</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.17184</v>
+        <v>0.7929599999999999</v>
       </c>
       <c r="R46" t="n">
         <v>0.003918367346938775</v>
@@ -4912,10 +4912,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P47" t="n">
-        <v>10.063984</v>
+        <v>2.0127968</v>
       </c>
       <c r="Q47" t="n">
-        <v>3.806207999999999</v>
+        <v>0.7612416</v>
       </c>
       <c r="R47" t="n">
         <v>0.00323265306122449</v>
@@ -5007,10 +5007,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P48" t="n">
-        <v>13.216</v>
+        <v>2.6432</v>
       </c>
       <c r="Q48" t="n">
-        <v>6.608</v>
+        <v>1.3216</v>
       </c>
       <c r="R48" t="n">
         <v>0.009795918367346938</v>
@@ -5102,10 +5102,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>10.5728</v>
+        <v>2.11456</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.9912000000000001</v>
+        <v>0.19824</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -5197,10 +5197,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P50" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q50" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="R50" t="n">
         <v>0.004897959183673469</v>
@@ -5292,10 +5292,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P51" t="n">
-        <v>11.8944</v>
+        <v>2.9736</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.18944</v>
+        <v>0.29736</v>
       </c>
       <c r="R51" t="n">
         <v>0.003918367346938775</v>
@@ -5387,10 +5387,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P52" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.9912000000000001</v>
+        <v>0.2478</v>
       </c>
       <c r="R52" t="n">
         <v>0.001959183673469388</v>
@@ -5482,10 +5482,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P53" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q53" t="n">
-        <v>5.9472</v>
+        <v>1.4868</v>
       </c>
       <c r="R53" t="n">
         <v>0.004897959183673469</v>
@@ -5577,10 +5577,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P54" t="n">
-        <v>7.929600000000001</v>
+        <v>1.58592</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.9824</v>
+        <v>0.3964800000000001</v>
       </c>
       <c r="R54" t="n">
         <v>0.001959183673469388</v>
@@ -5672,10 +5672,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P55" t="n">
-        <v>6.608</v>
+        <v>1.3216</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.3216</v>
+        <v>0.26432</v>
       </c>
       <c r="R55" t="n">
         <v>0.0009795918367346938</v>
@@ -5767,10 +5767,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P56" t="n">
-        <v>13.216</v>
+        <v>4.405333333333333</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.9824</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R56" t="n">
         <v>0.004897959183673469</v>
@@ -5862,10 +5862,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>5.6168</v>
+        <v>1.4042</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.7929599999999999</v>
+        <v>0.19824</v>
       </c>
       <c r="R57" t="n">
         <v>0.001959183673469388</v>
@@ -5957,10 +5957,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P58" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R58" t="n">
         <v>0.003918367346938775</v>
@@ -6052,10 +6052,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P59" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R59" t="n">
         <v>0.003918367346938775</v>
@@ -6147,10 +6147,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P60" t="n">
-        <v>11.8944</v>
+        <v>2.9736</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R60" t="n">
         <v>0.001959183673469388</v>
@@ -6242,10 +6242,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P61" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R61" t="n">
         <v>0.004408163265306123</v>
@@ -6337,10 +6337,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P62" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.652</v>
+        <v>0.413</v>
       </c>
       <c r="R62" t="n">
         <v>0.006857142857142857</v>
@@ -6432,10 +6432,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P63" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.6432</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R63" t="n">
         <v>0.004897959183673469</v>
@@ -6527,10 +6527,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P64" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.51984</v>
+        <v>0.37996</v>
       </c>
       <c r="R64" t="n">
         <v>0.009306122448979591</v>
@@ -6622,10 +6622,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P65" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R65" t="n">
         <v>0.003722448979591837</v>
@@ -6717,10 +6717,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P66" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q66" t="n">
-        <v>3.9648</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="R66" t="n">
         <v>0.0009795918367346938</v>
@@ -6812,10 +6812,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P67" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R67" t="n">
         <v>0.004897959183673469</v>
@@ -6907,10 +6907,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P68" t="n">
-        <v>10.17632</v>
+        <v>2.035264</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.77536</v>
+        <v>0.555072</v>
       </c>
       <c r="R68" t="n">
         <v>0.001469387755102041</v>
@@ -7002,10 +7002,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P69" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q69" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R69" t="n">
         <v>0.007640816326530612</v>
@@ -7097,10 +7097,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P70" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R70" t="n">
         <v>0.009795918367346938</v>
@@ -7192,10 +7192,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P71" t="n">
-        <v>11.8944</v>
+        <v>2.9736</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R71" t="n">
         <v>0.0009795918367346938</v>
@@ -7287,10 +7287,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P72" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q72" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R72" t="n">
         <v>0.004897959183673469</v>
@@ -7382,10 +7382,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P73" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q73" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R73" t="n">
         <v>0.003918367346938775</v>
@@ -7477,10 +7477,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P74" t="n">
-        <v>7.929600000000001</v>
+        <v>1.58592</v>
       </c>
       <c r="Q74" t="n">
-        <v>4.6256</v>
+        <v>0.9251200000000001</v>
       </c>
       <c r="R74" t="n">
         <v>0.01224489795918367</v>
@@ -7572,10 +7572,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P75" t="n">
-        <v>6.608</v>
+        <v>2.202666666666667</v>
       </c>
       <c r="Q75" t="n">
-        <v>6.608</v>
+        <v>2.202666666666667</v>
       </c>
       <c r="R75" t="n">
         <v>0.009795918367346938</v>
@@ -7667,10 +7667,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P76" t="n">
-        <v>7.929600000000001</v>
+        <v>1.58592</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.9824</v>
+        <v>0.3964800000000001</v>
       </c>
       <c r="R76" t="n">
         <v>0.003918367346938775</v>
@@ -7762,10 +7762,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P77" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q77" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R77" t="n">
         <v>0.004897959183673469</v>
@@ -7857,10 +7857,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P78" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R78" t="n">
         <v>0.0009795918367346938</v>
@@ -7952,10 +7952,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P79" t="n">
-        <v>7.599200000000001</v>
+        <v>1.8998</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.4625599999999999</v>
+        <v>0.11564</v>
       </c>
       <c r="R79" t="n">
         <v>0.003918367346938775</v>
@@ -8047,10 +8047,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P80" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R80" t="n">
         <v>0.004897959183673469</v>
@@ -8142,10 +8142,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P81" t="n">
-        <v>7.929600000000001</v>
+        <v>1.58592</v>
       </c>
       <c r="Q81" t="n">
-        <v>3.9648</v>
+        <v>0.7929600000000001</v>
       </c>
       <c r="R81" t="n">
         <v>0.007346938775510204</v>
@@ -8237,10 +8237,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P82" t="n">
-        <v>7.929600000000001</v>
+        <v>1.58592</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.9824</v>
+        <v>0.3964800000000001</v>
       </c>
       <c r="R82" t="n">
         <v>0.003918367346938775</v>
@@ -8332,10 +8332,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P83" t="n">
-        <v>11.8944</v>
+        <v>2.9736</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.652</v>
+        <v>0.413</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -8427,10 +8427,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P84" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.6432</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R84" t="n">
         <v>0.009795918367346938</v>
@@ -8522,10 +8522,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P85" t="n">
-        <v>5.2864</v>
+        <v>1.05728</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.3216</v>
+        <v>0.26432</v>
       </c>
       <c r="R85" t="n">
         <v>0.003428571428571428</v>
@@ -8617,10 +8617,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P86" t="n">
-        <v>5.2864</v>
+        <v>1.05728</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.9824</v>
+        <v>0.3964800000000001</v>
       </c>
       <c r="R86" t="n">
         <v>0.009795918367346938</v>
@@ -8712,10 +8712,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P87" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R87" t="n">
         <v>0.007346938775510204</v>
@@ -8807,10 +8807,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P88" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R88" t="n">
         <v>9.795918367346939e-05</v>
@@ -8902,10 +8902,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P89" t="n">
-        <v>12.5552</v>
+        <v>3.1388</v>
       </c>
       <c r="Q89" t="n">
-        <v>3.9648</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="R89" t="n">
         <v>0.002448979591836735</v>
@@ -8997,10 +8997,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P90" t="n">
-        <v>7.929600000000001</v>
+        <v>1.58592</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.3216</v>
+        <v>0.26432</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -9092,10 +9092,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P91" t="n">
-        <v>12.5552</v>
+        <v>2.51104</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.9824</v>
+        <v>0.3964800000000001</v>
       </c>
       <c r="R91" t="n">
         <v>0.0009795918367346938</v>
@@ -9187,10 +9187,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P92" t="n">
-        <v>14.5376</v>
+        <v>2.90752</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.3128</v>
+        <v>0.46256</v>
       </c>
       <c r="R92" t="n">
         <v>0.002448979591836735</v>
@@ -9282,10 +9282,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P93" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R93" t="n">
         <v>0.004897959183673469</v>
@@ -9377,10 +9377,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P94" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q94" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R94" t="n">
         <v>0.004897959183673469</v>
@@ -9472,10 +9472,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P95" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -9567,10 +9567,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P96" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R96" t="n">
         <v>0.002448979591836735</v>
@@ -9662,10 +9662,10 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R97" t="n">
         <v>0.002448979591836735</v>
@@ -9757,10 +9757,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P98" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R98" t="n">
         <v>0.003918367346938775</v>
@@ -9852,10 +9852,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P99" t="n">
-        <v>8.590400000000001</v>
+        <v>2.1476</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R99" t="n">
         <v>0.004897959183673469</v>
@@ -9947,10 +9947,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P100" t="n">
-        <v>13.216</v>
+        <v>2.6432</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.6432</v>
+        <v>0.52864</v>
       </c>
       <c r="R100" t="n">
         <v>0.001077551020408163</v>
@@ -10042,10 +10042,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P101" t="n">
-        <v>7.929600000000001</v>
+        <v>1.58592</v>
       </c>
       <c r="Q101" t="n">
-        <v>6.608</v>
+        <v>1.3216</v>
       </c>
       <c r="R101" t="n">
         <v>0.0004897959183673469</v>
@@ -10137,10 +10137,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P102" t="n">
-        <v>13.216</v>
+        <v>2.6432</v>
       </c>
       <c r="Q102" t="n">
-        <v>5.2864</v>
+        <v>1.05728</v>
       </c>
       <c r="R102" t="n">
         <v>0.003918367346938775</v>
@@ -10232,10 +10232,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P103" t="n">
-        <v>9.911999999999999</v>
+        <v>1.9824</v>
       </c>
       <c r="Q103" t="n">
-        <v>3.304</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R103" t="n">
         <v>0.002448979591836735</v>
@@ -10327,10 +10327,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P104" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R104" t="n">
         <v>0.004897959183673469</v>
@@ -10422,10 +10422,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P105" t="n">
-        <v>6.608</v>
+        <v>1.3216</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.3304</v>
+        <v>0.06608</v>
       </c>
       <c r="R105" t="n">
         <v>0.009795918367346938</v>
@@ -10517,10 +10517,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P106" t="n">
-        <v>7.268800000000001</v>
+        <v>1.45376</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.13216</v>
       </c>
       <c r="R106" t="n">
         <v>0.004897959183673469</v>
@@ -10612,10 +10612,10 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>5.9472</v>
+        <v>1.4868</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R107" t="n">
         <v>0.001469387755102041</v>
@@ -10707,10 +10707,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P108" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R108" t="n">
         <v>0.004897959183673469</v>
@@ -10802,10 +10802,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P109" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R109" t="n">
         <v>0.004897959183673469</v>
@@ -10897,10 +10897,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P110" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q110" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
@@ -10992,10 +10992,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P111" t="n">
-        <v>13.216</v>
+        <v>2.6432</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.652</v>
+        <v>0.3304</v>
       </c>
       <c r="R111" t="n">
         <v>0</v>
@@ -11087,10 +11087,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P112" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R112" t="n">
         <v>0.001469387755102041</v>
@@ -11182,10 +11182,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P113" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R113" t="n">
         <v>0.005877551020408163</v>
@@ -11277,10 +11277,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P114" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R114" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P115" t="n">
-        <v>13.216</v>
+        <v>2.6432</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.9824</v>
+        <v>0.3964800000000001</v>
       </c>
       <c r="R115" t="n">
         <v>0.002448979591836735</v>
@@ -11467,10 +11467,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P116" t="n">
-        <v>11.8944</v>
+        <v>2.9736</v>
       </c>
       <c r="Q116" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="R116" t="n">
         <v>0.005926530612244897</v>
@@ -11562,10 +11562,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P117" t="n">
-        <v>6.608</v>
+        <v>1.3216</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.13216</v>
       </c>
       <c r="R117" t="n">
         <v>0.002448979591836735</v>
@@ -11657,10 +11657,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P118" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R118" t="n">
         <v>0</v>
@@ -11752,10 +11752,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P119" t="n">
-        <v>3.9648</v>
+        <v>1.9824</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.29736</v>
+        <v>0.14868</v>
       </c>
       <c r="R119" t="n">
         <v>0.002448979591836735</v>
@@ -11847,10 +11847,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P120" t="n">
-        <v>6.608</v>
+        <v>1.3216</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.6432</v>
+        <v>0.52864</v>
       </c>
       <c r="R120" t="n">
         <v>0</v>
@@ -11942,10 +11942,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P121" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q121" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="R121" t="n">
         <v>0.003918367346938775</v>
@@ -12037,10 +12037,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P122" t="n">
-        <v>3.9648</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R122" t="n">
         <v>0</v>
@@ -12132,10 +12132,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P123" t="n">
-        <v>11.8944</v>
+        <v>2.9736</v>
       </c>
       <c r="Q123" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R123" t="n">
         <v>0.004897959183673469</v>
@@ -12227,10 +12227,10 @@
         <v>0</v>
       </c>
       <c r="P124" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R124" t="n">
         <v>0.002938775510204081</v>
@@ -12322,10 +12322,10 @@
         <v>0</v>
       </c>
       <c r="P125" t="n">
-        <v>9.911999999999999</v>
+        <v>1.9824</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.3216</v>
+        <v>0.26432</v>
       </c>
       <c r="R125" t="n">
         <v>0.004897959183673469</v>
@@ -12417,10 +12417,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P126" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R126" t="n">
         <v>0.004897959183673469</v>
@@ -12512,10 +12512,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P127" t="n">
-        <v>11.8944</v>
+        <v>2.9736</v>
       </c>
       <c r="Q127" t="n">
-        <v>2.6432</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R127" t="n">
         <v>0.0009795918367346938</v>
@@ -12607,10 +12607,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P128" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q128" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="R128" t="n">
         <v>0.005877551020408163</v>
@@ -12702,10 +12702,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P129" t="n">
-        <v>10.367952</v>
+        <v>2.591988</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.830416</v>
+        <v>0.457604</v>
       </c>
       <c r="R129" t="n">
         <v>0.001371428571428572</v>
@@ -12797,10 +12797,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P130" t="n">
-        <v>8.326079999999999</v>
+        <v>2.08152</v>
       </c>
       <c r="Q130" t="n">
-        <v>4.2952</v>
+        <v>1.0738</v>
       </c>
       <c r="R130" t="n">
         <v>0.001959183673469388</v>
@@ -12892,10 +12892,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P131" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q131" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R131" t="n">
         <v>0</v>
@@ -12987,10 +12987,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P132" t="n">
-        <v>10.5728</v>
+        <v>2.6432</v>
       </c>
       <c r="Q132" t="n">
-        <v>5.9472</v>
+        <v>1.4868</v>
       </c>
       <c r="R132" t="n">
         <v>0.002448979591836735</v>
@@ -13082,10 +13082,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P133" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q133" t="n">
-        <v>5.9472</v>
+        <v>1.4868</v>
       </c>
       <c r="R133" t="n">
         <v>0.004408163265306123</v>
@@ -13177,10 +13177,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P134" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R134" t="n">
         <v>0.004897959183673469</v>
@@ -13272,10 +13272,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P135" t="n">
-        <v>7.751184</v>
+        <v>1.937796</v>
       </c>
       <c r="Q135" t="n">
-        <v>1.35464</v>
+        <v>0.33866</v>
       </c>
       <c r="R135" t="n">
         <v>0.004163265306122449</v>
@@ -13367,10 +13367,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P136" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R136" t="n">
         <v>0.001077551020408163</v>
@@ -13462,10 +13462,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P137" t="n">
-        <v>8.590400000000001</v>
+        <v>2.1476</v>
       </c>
       <c r="Q137" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R137" t="n">
         <v>0.0009795918367346938</v>
@@ -13557,10 +13557,10 @@
         <v>0</v>
       </c>
       <c r="P138" t="n">
-        <v>11.2336</v>
+        <v>2.8084</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R138" t="n">
         <v>0.004897959183673469</v>
@@ -13652,10 +13652,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P139" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R139" t="n">
         <v>0.003918367346938775</v>
@@ -13747,10 +13747,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P140" t="n">
-        <v>8.458240000000002</v>
+        <v>2.819413333333334</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.3216</v>
+        <v>0.4405333333333333</v>
       </c>
       <c r="R140" t="n">
         <v>0.005877551020408163</v>
@@ -13842,10 +13842,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P141" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R141" t="n">
         <v>0.0009795918367346938</v>
@@ -13937,10 +13937,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P142" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R142" t="n">
         <v>0.007346938775510204</v>
@@ -14032,10 +14032,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P143" t="n">
-        <v>11.8944</v>
+        <v>2.9736</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.6432</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R143" t="n">
         <v>0.009795918367346938</v>
@@ -14127,10 +14127,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P144" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q144" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R144" t="n">
         <v>0.003918367346938775</v>
@@ -14222,10 +14222,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P145" t="n">
-        <v>5.88112</v>
+        <v>1.47028</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.9912000000000001</v>
+        <v>0.2478</v>
       </c>
       <c r="R145" t="n">
         <v>0</v>
@@ -14317,10 +14317,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P146" t="n">
-        <v>10.30848</v>
+        <v>2.57712</v>
       </c>
       <c r="Q146" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="R146" t="n">
         <v>0.002448979591836735</v>
@@ -14412,10 +14412,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P147" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.6432</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R147" t="n">
         <v>0</v>
@@ -14507,10 +14507,10 @@
         <v>0</v>
       </c>
       <c r="P148" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q148" t="n">
-        <v>2.6432</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R148" t="n">
         <v>0.003918367346938775</v>
@@ -14602,10 +14602,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P149" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q149" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R149" t="n">
         <v>0.005387755102040817</v>
@@ -14697,10 +14697,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P150" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.3304</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="R150" t="n">
         <v>0.002448979591836735</v>
@@ -14792,10 +14792,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P151" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q151" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R151" t="n">
         <v>0.002938775510204081</v>
@@ -14887,10 +14887,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P152" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.6432</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R152" t="n">
         <v>0.0009795918367346938</v>
@@ -14982,10 +14982,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P153" t="n">
-        <v>7.929600000000001</v>
+        <v>1.58592</v>
       </c>
       <c r="Q153" t="n">
-        <v>4.6256</v>
+        <v>0.9251200000000001</v>
       </c>
       <c r="R153" t="n">
         <v>0.009795918367346938</v>
@@ -15077,10 +15077,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P154" t="n">
-        <v>11.8944</v>
+        <v>2.9736</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R154" t="n">
         <v>0.005877551020408163</v>
@@ -15172,10 +15172,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P155" t="n">
-        <v>11.8944</v>
+        <v>2.37888</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.3216</v>
+        <v>0.26432</v>
       </c>
       <c r="R155" t="n">
         <v>0.005877551020408163</v>
@@ -15267,10 +15267,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P156" t="n">
-        <v>11.557392</v>
+        <v>2.889348</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.3128</v>
+        <v>0.5782</v>
       </c>
       <c r="R156" t="n">
         <v>0</v>
@@ -15362,10 +15362,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P157" t="n">
-        <v>11.8944</v>
+        <v>2.37888</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.3216</v>
+        <v>0.26432</v>
       </c>
       <c r="R157" t="n">
         <v>0.001469387755102041</v>
@@ -15457,10 +15457,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P158" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.6432</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R158" t="n">
         <v>0.004897959183673469</v>
@@ -15552,10 +15552,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P159" t="n">
-        <v>6.9384</v>
+        <v>1.7346</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.11456</v>
+        <v>0.5286400000000001</v>
       </c>
       <c r="R159" t="n">
         <v>0.004359183673469387</v>
@@ -15647,10 +15647,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P160" t="n">
-        <v>9.251200000000001</v>
+        <v>2.3128</v>
       </c>
       <c r="Q160" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R160" t="n">
         <v>0</v>
@@ -15742,10 +15742,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P161" t="n">
-        <v>8.127840000000001</v>
+        <v>2.03196</v>
       </c>
       <c r="Q161" t="n">
-        <v>2.3128</v>
+        <v>0.5782</v>
       </c>
       <c r="R161" t="n">
         <v>0.002448979591836735</v>
@@ -15837,10 +15837,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P162" t="n">
-        <v>7.33488</v>
+        <v>1.83372</v>
       </c>
       <c r="Q162" t="n">
-        <v>4.36128</v>
+        <v>1.09032</v>
       </c>
       <c r="R162" t="n">
         <v>0.003918367346938775</v>
@@ -15932,10 +15932,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P163" t="n">
-        <v>12.5552</v>
+        <v>2.51104</v>
       </c>
       <c r="Q163" t="n">
-        <v>3.304</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R163" t="n">
         <v>0</v>
@@ -16027,10 +16027,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P164" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="Q164" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R164" t="n">
         <v>0</v>
@@ -16122,10 +16122,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P165" t="n">
-        <v>7.929600000000001</v>
+        <v>1.58592</v>
       </c>
       <c r="Q165" t="n">
-        <v>3.304</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R165" t="n">
         <v>0.002938775510204081</v>
@@ -16217,10 +16217,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P166" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q166" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R166" t="n">
         <v>0.004897959183673469</v>
@@ -16312,10 +16312,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P167" t="n">
-        <v>11.2336</v>
+        <v>2.24672</v>
       </c>
       <c r="Q167" t="n">
-        <v>1.9824</v>
+        <v>0.3964800000000001</v>
       </c>
       <c r="R167" t="n">
         <v>0.002448979591836735</v>
@@ -16407,10 +16407,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P168" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q168" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R168" t="n">
         <v>0.003918367346938775</v>
@@ -16502,10 +16502,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P169" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q169" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R169" t="n">
         <v>0.009795918367346938</v>
@@ -16597,10 +16597,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P170" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q170" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="R170" t="n">
         <v>0</v>
@@ -16692,10 +16692,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P171" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q171" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R171" t="n">
         <v>0.001959183673469388</v>
@@ -16787,10 +16787,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P172" t="n">
-        <v>7.268800000000001</v>
+        <v>1.8172</v>
       </c>
       <c r="Q172" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R172" t="n">
         <v>0.002448979591836735</v>
@@ -16882,10 +16882,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P173" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q173" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R173" t="n">
         <v>0.003918367346938775</v>
@@ -16977,10 +16977,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P174" t="n">
-        <v>7.268800000000001</v>
+        <v>1.8172</v>
       </c>
       <c r="Q174" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R174" t="n">
         <v>0.005093877551020408</v>
@@ -17072,10 +17072,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P175" t="n">
-        <v>4.6256</v>
+        <v>1.1564</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.9912000000000001</v>
+        <v>0.2478</v>
       </c>
       <c r="R175" t="n">
         <v>0</v>
@@ -17167,10 +17167,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P176" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q176" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R176" t="n">
         <v>0.003918367346938775</v>
@@ -17262,10 +17262,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P177" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q177" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="R177" t="n">
         <v>0.007346938775510204</v>
@@ -17357,10 +17357,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P178" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="Q178" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R178" t="n">
         <v>0.003918367346938775</v>
@@ -17452,10 +17452,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P179" t="n">
-        <v>13.216</v>
+        <v>2.6432</v>
       </c>
       <c r="Q179" t="n">
-        <v>6.608</v>
+        <v>1.3216</v>
       </c>
       <c r="R179" t="n">
         <v>0</v>
@@ -17547,10 +17547,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P180" t="n">
-        <v>6.608</v>
+        <v>1.3216</v>
       </c>
       <c r="Q180" t="n">
-        <v>3.304</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R180" t="n">
         <v>0</v>
@@ -17642,10 +17642,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P181" t="n">
-        <v>8.19392</v>
+        <v>2.731306666666667</v>
       </c>
       <c r="Q181" t="n">
-        <v>2.77536</v>
+        <v>0.9251200000000001</v>
       </c>
       <c r="R181" t="n">
         <v>0.002938775510204081</v>
@@ -17737,10 +17737,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P182" t="n">
-        <v>10.5728</v>
+        <v>2.11456</v>
       </c>
       <c r="Q182" t="n">
-        <v>2.3128</v>
+        <v>0.46256</v>
       </c>
       <c r="R182" t="n">
         <v>0</v>
@@ -17832,10 +17832,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P183" t="n">
-        <v>13.216</v>
+        <v>2.6432</v>
       </c>
       <c r="Q183" t="n">
-        <v>6.608</v>
+        <v>1.3216</v>
       </c>
       <c r="R183" t="n">
         <v>0.004897959183673469</v>
@@ -17927,10 +17927,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P184" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q184" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R184" t="n">
         <v>0.004897959183673469</v>
@@ -18022,10 +18022,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P185" t="n">
-        <v>7.53312</v>
+        <v>1.506624</v>
       </c>
       <c r="Q185" t="n">
-        <v>3.304</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R185" t="n">
         <v>0.004897959183673469</v>
@@ -18117,10 +18117,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P186" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q186" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R186" t="n">
         <v>0.004897959183673469</v>
@@ -18212,10 +18212,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P187" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q187" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R187" t="n">
         <v>0.007346938775510204</v>
@@ -18307,10 +18307,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P188" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q188" t="n">
-        <v>2.6432</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R188" t="n">
         <v>0</v>
@@ -18402,10 +18402,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P189" t="n">
-        <v>7.268800000000001</v>
+        <v>1.8172</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R189" t="n">
         <v>0.003428571428571428</v>
@@ -18497,10 +18497,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P190" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q190" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R190" t="n">
         <v>0.003673469387755102</v>
@@ -18592,10 +18592,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P191" t="n">
-        <v>6.608</v>
+        <v>2.202666666666667</v>
       </c>
       <c r="Q191" t="n">
-        <v>3.304</v>
+        <v>1.101333333333333</v>
       </c>
       <c r="R191" t="n">
         <v>0.004897959183673469</v>
@@ -18687,10 +18687,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P192" t="n">
-        <v>5.9472</v>
+        <v>1.18944</v>
       </c>
       <c r="Q192" t="n">
-        <v>2.6432</v>
+        <v>0.52864</v>
       </c>
       <c r="R192" t="n">
         <v>0</v>
@@ -18782,10 +18782,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P193" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q193" t="n">
-        <v>2.6432</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R193" t="n">
         <v>0.003428571428571428</v>
@@ -18877,10 +18877,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P194" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q194" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R194" t="n">
         <v>0.0009795918367346938</v>
@@ -18972,10 +18972,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P195" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q195" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R195" t="n">
         <v>0.007836734693877551</v>
@@ -19067,10 +19067,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P196" t="n">
-        <v>12.2248</v>
+        <v>2.44496</v>
       </c>
       <c r="Q196" t="n">
-        <v>3.700479999999999</v>
+        <v>0.7400959999999999</v>
       </c>
       <c r="R196" t="n">
         <v>0</v>
@@ -19162,10 +19162,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P197" t="n">
-        <v>14.07504</v>
+        <v>2.815008</v>
       </c>
       <c r="Q197" t="n">
-        <v>4.797408</v>
+        <v>0.9594815999999999</v>
       </c>
       <c r="R197" t="n">
         <v>0.007248979591836735</v>
@@ -19257,10 +19257,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P198" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q198" t="n">
-        <v>4.6256</v>
+        <v>1.1564</v>
       </c>
       <c r="R198" t="n">
         <v>0.003918367346938775</v>
@@ -19352,10 +19352,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P199" t="n">
-        <v>6.740159999999999</v>
+        <v>1.348032</v>
       </c>
       <c r="Q199" t="n">
-        <v>3.50224</v>
+        <v>0.7004480000000001</v>
       </c>
       <c r="R199" t="n">
         <v>0.002448979591836735</v>
@@ -19447,10 +19447,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P200" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q200" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R200" t="n">
         <v>0.01224489795918367</v>
@@ -19542,10 +19542,10 @@
         <v>0</v>
       </c>
       <c r="P201" t="n">
-        <v>13.216</v>
+        <v>2.6432</v>
       </c>
       <c r="Q201" t="n">
-        <v>3.304</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R201" t="n">
         <v>0.002448979591836735</v>
@@ -19637,10 +19637,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P202" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q202" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R202" t="n">
         <v>0.003918367346938775</v>
@@ -19732,10 +19732,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P203" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q203" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R203" t="n">
         <v>0.009795918367346938</v>
@@ -19827,10 +19827,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P204" t="n">
-        <v>10.5728</v>
+        <v>2.6432</v>
       </c>
       <c r="Q204" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="R204" t="n">
         <v>0.007346938775510204</v>
@@ -19922,10 +19922,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P205" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q205" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R205" t="n">
         <v>0.002448979591836735</v>
@@ -20017,10 +20017,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P206" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q206" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R206" t="n">
         <v>0.002448979591836735</v>
@@ -20112,10 +20112,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P207" t="n">
-        <v>7.929600000000001</v>
+        <v>1.58592</v>
       </c>
       <c r="Q207" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.13216</v>
       </c>
       <c r="R207" t="n">
         <v>0.003918367346938775</v>
@@ -20207,10 +20207,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P208" t="n">
-        <v>7.929600000000001</v>
+        <v>1.58592</v>
       </c>
       <c r="Q208" t="n">
-        <v>1.9824</v>
+        <v>0.3964800000000001</v>
       </c>
       <c r="R208" t="n">
         <v>0.009795918367346938</v>
@@ -20302,10 +20302,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P209" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q209" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R209" t="n">
         <v>0.005877551020408163</v>
@@ -20397,10 +20397,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P210" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q210" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R210" t="n">
         <v>0.004897959183673469</v>
@@ -20492,10 +20492,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P211" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q211" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="R211" t="n">
         <v>0.004897959183673469</v>
@@ -20587,10 +20587,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P212" t="n">
-        <v>13.216</v>
+        <v>2.6432</v>
       </c>
       <c r="Q212" t="n">
-        <v>6.608</v>
+        <v>1.3216</v>
       </c>
       <c r="R212" t="n">
         <v>0.009795918367346938</v>
@@ -20682,10 +20682,10 @@
         <v>0</v>
       </c>
       <c r="P213" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q213" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R213" t="n">
         <v>0.004897959183673469</v>
@@ -20777,10 +20777,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P214" t="n">
-        <v>8.590400000000001</v>
+        <v>2.1476</v>
       </c>
       <c r="Q214" t="n">
-        <v>2.6432</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R214" t="n">
         <v>0.004897959183673469</v>
@@ -20872,10 +20872,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P215" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q215" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R215" t="n">
         <v>0.002448979591836735</v>
@@ -20967,10 +20967,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P216" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q216" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R216" t="n">
         <v>0.003918367346938775</v>
@@ -21062,10 +21062,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P217" t="n">
-        <v>7.929600000000001</v>
+        <v>3.9648</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.3304</v>
       </c>
       <c r="R217" t="n">
         <v>0.003918367346938775</v>
@@ -21157,10 +21157,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P218" t="n">
-        <v>6.601392000000001</v>
+        <v>1.650348</v>
       </c>
       <c r="Q218" t="n">
-        <v>1.546272</v>
+        <v>0.386568</v>
       </c>
       <c r="R218" t="n">
         <v>0.002448979591836735</v>
@@ -21252,10 +21252,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P219" t="n">
-        <v>13.566224</v>
+        <v>3.391556</v>
       </c>
       <c r="Q219" t="n">
-        <v>4.480224</v>
+        <v>1.120056</v>
       </c>
       <c r="R219" t="n">
         <v>0.003428571428571428</v>
@@ -21347,10 +21347,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P220" t="n">
-        <v>7.268800000000001</v>
+        <v>1.8172</v>
       </c>
       <c r="Q220" t="n">
-        <v>0.9912000000000001</v>
+        <v>0.2478</v>
       </c>
       <c r="R220" t="n">
         <v>0</v>
@@ -21442,10 +21442,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P221" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q221" t="n">
-        <v>3.9648</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="R221" t="n">
         <v>0.002448979591836735</v>
@@ -21537,10 +21537,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P222" t="n">
-        <v>3.9648</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="Q222" t="n">
-        <v>0.7929599999999999</v>
+        <v>0.19824</v>
       </c>
       <c r="R222" t="n">
         <v>0.004897959183673469</v>
@@ -21632,10 +21632,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P223" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q223" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R223" t="n">
         <v>0.001469387755102041</v>
@@ -21727,10 +21727,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P224" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q224" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R224" t="n">
         <v>0.003428571428571428</v>
@@ -21822,10 +21822,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P225" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q225" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R225" t="n">
         <v>0.003918367346938775</v>
@@ -21917,10 +21917,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P226" t="n">
-        <v>11.96048</v>
+        <v>2.99012</v>
       </c>
       <c r="Q226" t="n">
-        <v>0.7268800000000001</v>
+        <v>0.18172</v>
       </c>
       <c r="R226" t="n">
         <v>0.001469387755102041</v>
@@ -22012,10 +22012,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P227" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q227" t="n">
-        <v>0.5286400000000001</v>
+        <v>0.13216</v>
       </c>
       <c r="R227" t="n">
         <v>0.003918367346938775</v>
@@ -22107,10 +22107,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P228" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q228" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R228" t="n">
         <v>0.003918367346938775</v>
@@ -22202,10 +22202,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P229" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q229" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R229" t="n">
         <v>0.007346938775510204</v>
@@ -22297,10 +22297,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P230" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q230" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R230" t="n">
         <v>0.009795918367346938</v>
@@ -22392,10 +22392,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P231" t="n">
-        <v>5.9472</v>
+        <v>1.4868</v>
       </c>
       <c r="Q231" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R231" t="n">
         <v>0.004897959183673469</v>
@@ -22487,10 +22487,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P232" t="n">
-        <v>10.5728</v>
+        <v>2.11456</v>
       </c>
       <c r="Q232" t="n">
-        <v>1.9824</v>
+        <v>0.3964800000000001</v>
       </c>
       <c r="R232" t="n">
         <v>0.003918367346938775</v>
@@ -22582,10 +22582,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P233" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q233" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R233" t="n">
         <v>0.004897959183673469</v>
@@ -22677,10 +22677,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P234" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q234" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R234" t="n">
         <v>0.003918367346938775</v>
@@ -22772,10 +22772,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P235" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q235" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R235" t="n">
         <v>0.005877551020408163</v>
@@ -22867,10 +22867,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P236" t="n">
-        <v>10.44064</v>
+        <v>2.61016</v>
       </c>
       <c r="Q236" t="n">
-        <v>0.9912000000000001</v>
+        <v>0.2478</v>
       </c>
       <c r="R236" t="n">
         <v>0.004408163265306123</v>
@@ -22962,10 +22962,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P237" t="n">
-        <v>8.590400000000001</v>
+        <v>2.1476</v>
       </c>
       <c r="Q237" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R237" t="n">
         <v>0.003428571428571428</v>
@@ -23057,10 +23057,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P238" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q238" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R238" t="n">
         <v>0.004897959183673469</v>
@@ -23152,10 +23152,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P239" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q239" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R239" t="n">
         <v>0.002448979591836735</v>
@@ -23247,10 +23247,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P240" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q240" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R240" t="n">
         <v>0.0009795918367346938</v>
@@ -23342,10 +23342,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P241" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q241" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R241" t="n">
         <v>0.004897959183673469</v>
@@ -23437,10 +23437,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P242" t="n">
-        <v>8.590400000000001</v>
+        <v>2.1476</v>
       </c>
       <c r="Q242" t="n">
-        <v>1.652</v>
+        <v>0.413</v>
       </c>
       <c r="R242" t="n">
         <v>0.002448979591836735</v>
@@ -23532,10 +23532,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P243" t="n">
-        <v>5.055120000000001</v>
+        <v>1.26378</v>
       </c>
       <c r="Q243" t="n">
-        <v>1.12336</v>
+        <v>0.28084</v>
       </c>
       <c r="R243" t="n">
         <v>0.008179591836734694</v>
@@ -23627,10 +23627,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P244" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="Q244" t="n">
-        <v>0.3304</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="R244" t="n">
         <v>0.001469387755102041</v>
@@ -23722,10 +23722,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P245" t="n">
-        <v>3.9648</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="Q245" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R245" t="n">
         <v>0.001959183673469388</v>
@@ -23817,10 +23817,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P246" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q246" t="n">
-        <v>3.9648</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="R246" t="n">
         <v>0.004897959183673469</v>
@@ -23912,10 +23912,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P247" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q247" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R247" t="n">
         <v>0.003918367346938775</v>
@@ -24007,10 +24007,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P248" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q248" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R248" t="n">
         <v>0.002448979591836735</v>
@@ -24102,10 +24102,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P249" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q249" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R249" t="n">
         <v>0.004897959183673469</v>
@@ -24197,10 +24197,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P250" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q250" t="n">
-        <v>2.6432</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R250" t="n">
         <v>0.007346938775510204</v>
@@ -24292,10 +24292,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P251" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q251" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="R251" t="n">
         <v>0.003428571428571428</v>
@@ -24387,10 +24387,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P252" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q252" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R252" t="n">
         <v>0.002987755102040816</v>
@@ -24482,10 +24482,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P253" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q253" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="R253" t="n">
         <v>0.009844897959183672</v>
@@ -24577,10 +24577,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P254" t="n">
-        <v>6.720336000000001</v>
+        <v>1.680084</v>
       </c>
       <c r="Q254" t="n">
-        <v>3.475808</v>
+        <v>0.8689519999999999</v>
       </c>
       <c r="R254" t="n">
         <v>0.006073469387755101</v>
@@ -24672,10 +24672,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P255" t="n">
-        <v>7.427392</v>
+        <v>1.856848</v>
       </c>
       <c r="Q255" t="n">
-        <v>2.894304</v>
+        <v>0.723576</v>
       </c>
       <c r="R255" t="n">
         <v>0.004359183673469387</v>
@@ -24767,10 +24767,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P256" t="n">
-        <v>12.475904</v>
+        <v>3.118976</v>
       </c>
       <c r="Q256" t="n">
-        <v>2.563904</v>
+        <v>0.640976</v>
       </c>
       <c r="R256" t="n">
         <v>0.004897959183673469</v>
@@ -24862,10 +24862,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P257" t="n">
-        <v>6.145440000000001</v>
+        <v>1.53636</v>
       </c>
       <c r="Q257" t="n">
-        <v>3.50224</v>
+        <v>0.87556</v>
       </c>
       <c r="R257" t="n">
         <v>0.008816326530612246</v>
@@ -24957,10 +24957,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P258" t="n">
-        <v>13.216</v>
+        <v>2.6432</v>
       </c>
       <c r="Q258" t="n">
-        <v>2.6432</v>
+        <v>0.52864</v>
       </c>
       <c r="R258" t="n">
         <v>0.009795918367346938</v>
@@ -25052,10 +25052,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P259" t="n">
-        <v>11.372368</v>
+        <v>2.843092</v>
       </c>
       <c r="Q259" t="n">
-        <v>0.9515519999999998</v>
+        <v>0.237888</v>
       </c>
       <c r="R259" t="n">
         <v>0.005877551020408163</v>
@@ -25147,10 +25147,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P260" t="n">
-        <v>13.01776</v>
+        <v>3.25444</v>
       </c>
       <c r="Q260" t="n">
-        <v>3.03968</v>
+        <v>0.7599199999999999</v>
       </c>
       <c r="R260" t="n">
         <v>0.003428571428571428</v>
@@ -25242,10 +25242,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P261" t="n">
-        <v>7.929600000000001</v>
+        <v>1.58592</v>
       </c>
       <c r="Q261" t="n">
-        <v>2.6432</v>
+        <v>0.52864</v>
       </c>
       <c r="R261" t="n">
         <v>0.001959183673469388</v>
@@ -25337,10 +25337,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P262" t="n">
-        <v>8.484672</v>
+        <v>2.121168</v>
       </c>
       <c r="Q262" t="n">
-        <v>0.237888</v>
+        <v>0.05947199999999999</v>
       </c>
       <c r="R262" t="n">
         <v>0.002742857142857143</v>
@@ -25432,10 +25432,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P263" t="n">
-        <v>8.986879999999999</v>
+        <v>2.24672</v>
       </c>
       <c r="Q263" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R263" t="n">
         <v>0.01273469387755102</v>
@@ -25527,10 +25527,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P264" t="n">
-        <v>8.590400000000001</v>
+        <v>2.1476</v>
       </c>
       <c r="Q264" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R264" t="n">
         <v>0.003428571428571428</v>
@@ -25622,10 +25622,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P265" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q265" t="n">
-        <v>3.9648</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="R265" t="n">
         <v>0.002448979591836735</v>
@@ -25717,10 +25717,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P266" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q266" t="n">
-        <v>3.9648</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="R266" t="n">
         <v>0.003918367346938775</v>
@@ -25812,10 +25812,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P267" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q267" t="n">
-        <v>3.9648</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="R267" t="n">
         <v>0.002448979591836735</v>
@@ -25907,10 +25907,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P268" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q268" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R268" t="n">
         <v>0</v>
@@ -26002,10 +26002,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P269" t="n">
-        <v>7.20272</v>
+        <v>1.80068</v>
       </c>
       <c r="Q269" t="n">
-        <v>4.03088</v>
+        <v>1.00772</v>
       </c>
       <c r="R269" t="n">
         <v>0.007836734693877551</v>
@@ -26097,10 +26097,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P270" t="n">
-        <v>5.577152</v>
+        <v>1.394288</v>
       </c>
       <c r="Q270" t="n">
-        <v>1.083712</v>
+        <v>0.270928</v>
       </c>
       <c r="R270" t="n">
         <v>0.003771428571428571</v>
@@ -26192,10 +26192,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P271" t="n">
-        <v>5.9472</v>
+        <v>1.4868</v>
       </c>
       <c r="Q271" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R271" t="n">
         <v>0.007346938775510204</v>
@@ -26287,10 +26287,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P272" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q272" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R272" t="n">
         <v>0.0004897959183673469</v>
@@ -26382,10 +26382,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P273" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q273" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R273" t="n">
         <v>0.002938775510204081</v>
@@ -26477,10 +26477,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P274" t="n">
-        <v>7.929600000000001</v>
+        <v>1.58592</v>
       </c>
       <c r="Q274" t="n">
-        <v>3.304</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R274" t="n">
         <v>0.003918367346938775</v>
@@ -26572,10 +26572,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P275" t="n">
-        <v>5.9472</v>
+        <v>1.4868</v>
       </c>
       <c r="Q275" t="n">
-        <v>0.9912000000000001</v>
+        <v>0.2478</v>
       </c>
       <c r="R275" t="n">
         <v>0.001959183673469388</v>
@@ -26667,10 +26667,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P276" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q276" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="R276" t="n">
         <v>0.003330612244897959</v>
@@ -26762,10 +26762,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P277" t="n">
-        <v>6.67408</v>
+        <v>1.66852</v>
       </c>
       <c r="Q277" t="n">
-        <v>1.652</v>
+        <v>0.413</v>
       </c>
       <c r="R277" t="n">
         <v>0.002448979591836735</v>
@@ -26857,10 +26857,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P278" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q278" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R278" t="n">
         <v>0.004897959183673469</v>
@@ -26952,10 +26952,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P279" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q279" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R279" t="n">
         <v>0.004897959183673469</v>
@@ -27047,10 +27047,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P280" t="n">
-        <v>12.105856</v>
+        <v>2.4211712</v>
       </c>
       <c r="Q280" t="n">
-        <v>1.691648</v>
+        <v>0.3383296</v>
       </c>
       <c r="R280" t="n">
         <v>0.003820408163265306</v>
@@ -27142,10 +27142,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P281" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q281" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R281" t="n">
         <v>0.007346938775510204</v>
@@ -27237,10 +27237,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P282" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q282" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="R282" t="n">
         <v>0.009795918367346938</v>
@@ -27332,10 +27332,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P283" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q283" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R283" t="n">
         <v>0.002448979591836735</v>
@@ -27427,10 +27427,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P284" t="n">
-        <v>7.929600000000001</v>
+        <v>2.6432</v>
       </c>
       <c r="Q284" t="n">
-        <v>1.9824</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R284" t="n">
         <v>0.004408163265306123</v>
@@ -27522,10 +27522,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P285" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q285" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R285" t="n">
         <v>0.004897959183673469</v>
@@ -27617,10 +27617,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P286" t="n">
-        <v>7.268800000000001</v>
+        <v>1.8172</v>
       </c>
       <c r="Q286" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R286" t="n">
         <v>0.002938775510204081</v>
@@ -27712,10 +27712,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P287" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q287" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R287" t="n">
         <v>0.004897959183673469</v>
@@ -27807,10 +27807,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P288" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q288" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R288" t="n">
         <v>0.004897959183673469</v>
@@ -27902,10 +27902,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P289" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q289" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="R289" t="n">
         <v>0.007346938775510204</v>
@@ -27997,10 +27997,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P290" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q290" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R290" t="n">
         <v>0.007346938775510204</v>
@@ -28092,10 +28092,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P291" t="n">
-        <v>7.268800000000001</v>
+        <v>1.8172</v>
       </c>
       <c r="Q291" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R291" t="n">
         <v>0.002448979591836735</v>
@@ -28187,10 +28187,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P292" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q292" t="n">
-        <v>1.05728</v>
+        <v>0.2643200000000001</v>
       </c>
       <c r="R292" t="n">
         <v>0.002448979591836735</v>
@@ -28282,10 +28282,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P293" t="n">
-        <v>1.9824</v>
+        <v>0.3964800000000001</v>
       </c>
       <c r="Q293" t="n">
-        <v>1.9824</v>
+        <v>0.3964800000000001</v>
       </c>
       <c r="R293" t="n">
         <v>0.009795918367346938</v>
@@ -28377,10 +28377,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P294" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q294" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R294" t="n">
         <v>0.003918367346938775</v>
@@ -28472,10 +28472,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P295" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q295" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R295" t="n">
         <v>0.003918367346938775</v>
@@ -28567,10 +28567,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P296" t="n">
-        <v>7.348095999999999</v>
+        <v>1.837024</v>
       </c>
       <c r="Q296" t="n">
-        <v>5.48464</v>
+        <v>1.37116</v>
       </c>
       <c r="R296" t="n">
         <v>0.006024489795918367</v>
@@ -28662,10 +28662,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P297" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q297" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="R297" t="n">
         <v>0.005877551020408163</v>
@@ -28757,10 +28757,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P298" t="n">
-        <v>11.2336</v>
+        <v>2.8084</v>
       </c>
       <c r="Q298" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R298" t="n">
         <v>0.004897959183673469</v>
@@ -28852,10 +28852,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P299" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q299" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R299" t="n">
         <v>0.009795918367346938</v>
@@ -28947,10 +28947,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P300" t="n">
-        <v>7.268800000000001</v>
+        <v>1.8172</v>
       </c>
       <c r="Q300" t="n">
-        <v>4.6256</v>
+        <v>1.1564</v>
       </c>
       <c r="R300" t="n">
         <v>0.009795918367346938</v>
@@ -29042,10 +29042,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P301" t="n">
-        <v>5.517679999999999</v>
+        <v>1.37942</v>
       </c>
       <c r="Q301" t="n">
-        <v>1.889888</v>
+        <v>0.4724719999999999</v>
       </c>
       <c r="R301" t="n">
         <v>0.006661224489795919</v>
@@ -29137,10 +29137,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P302" t="n">
-        <v>7.50008</v>
+        <v>1.87502</v>
       </c>
       <c r="Q302" t="n">
-        <v>1.88328</v>
+        <v>0.47082</v>
       </c>
       <c r="R302" t="n">
         <v>0.002253061224489796</v>
@@ -29232,10 +29232,10 @@
         <v>0</v>
       </c>
       <c r="P303" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q303" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R303" t="n">
         <v>0.004897959183673469</v>
@@ -29327,10 +29327,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P304" t="n">
-        <v>8.26</v>
+        <v>2.065</v>
       </c>
       <c r="Q304" t="n">
-        <v>1.12336</v>
+        <v>0.28084</v>
       </c>
       <c r="R304" t="n">
         <v>0.003722448979591837</v>
@@ -29422,10 +29422,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P305" t="n">
-        <v>6.740159999999999</v>
+        <v>1.68504</v>
       </c>
       <c r="Q305" t="n">
-        <v>2.70928</v>
+        <v>0.6773199999999999</v>
       </c>
       <c r="R305" t="n">
         <v>0.003918367346938775</v>
@@ -29517,10 +29517,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P306" t="n">
-        <v>9.911999999999999</v>
+        <v>3.304</v>
       </c>
       <c r="Q306" t="n">
-        <v>1.9824</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R306" t="n">
         <v>0.004897959183673469</v>
@@ -29612,10 +29612,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P307" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q307" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R307" t="n">
         <v>0.004897959183673469</v>
@@ -29707,10 +29707,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P308" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q308" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R308" t="n">
         <v>0.01028571428571429</v>
@@ -29802,10 +29802,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P309" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q309" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R309" t="n">
         <v>0.007346938775510204</v>
@@ -29897,10 +29897,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P310" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q310" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R310" t="n">
         <v>0.003918367346938775</v>
@@ -29992,10 +29992,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P311" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q311" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R311" t="n">
         <v>0.002938775510204081</v>
@@ -30087,10 +30087,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P312" t="n">
-        <v>9.911999999999999</v>
+        <v>3.304</v>
       </c>
       <c r="Q312" t="n">
-        <v>1.3216</v>
+        <v>0.4405333333333333</v>
       </c>
       <c r="R312" t="n">
         <v>0.004897959183673469</v>
@@ -30182,10 +30182,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P313" t="n">
-        <v>8.590400000000001</v>
+        <v>2.863466666666667</v>
       </c>
       <c r="Q313" t="n">
-        <v>3.6344</v>
+        <v>1.211466666666667</v>
       </c>
       <c r="R313" t="n">
         <v>0.003918367346938775</v>
@@ -30277,10 +30277,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P314" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q314" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R314" t="n">
         <v>0.003428571428571428</v>
@@ -30372,10 +30372,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P315" t="n">
-        <v>7.400959999999999</v>
+        <v>1.85024</v>
       </c>
       <c r="Q315" t="n">
-        <v>4.16304</v>
+        <v>1.04076</v>
       </c>
       <c r="R315" t="n">
         <v>0.006367346938775511</v>
@@ -30467,10 +30467,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P316" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q316" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R316" t="n">
         <v>0.005877551020408163</v>
@@ -30562,10 +30562,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P317" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q317" t="n">
-        <v>5.9472</v>
+        <v>1.4868</v>
       </c>
       <c r="R317" t="n">
         <v>0.005877551020408163</v>
@@ -30657,10 +30657,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P318" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q318" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R318" t="n">
         <v>0.003918367346938775</v>
@@ -30752,10 +30752,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P319" t="n">
-        <v>10.2424</v>
+        <v>2.5606</v>
       </c>
       <c r="Q319" t="n">
-        <v>0.62776</v>
+        <v>0.15694</v>
       </c>
       <c r="R319" t="n">
         <v>0.0048</v>
@@ -30847,10 +30847,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P320" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q320" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R320" t="n">
         <v>0.007346938775510204</v>
@@ -30942,10 +30942,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P321" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q321" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R321" t="n">
         <v>0.003918367346938775</v>
@@ -31037,10 +31037,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P322" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q322" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R322" t="n">
         <v>0.009795918367346938</v>
@@ -31132,10 +31132,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P323" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q323" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R323" t="n">
         <v>0.008816326530612246</v>
@@ -31227,10 +31227,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P324" t="n">
-        <v>11.2336</v>
+        <v>2.8084</v>
       </c>
       <c r="Q324" t="n">
-        <v>2.6432</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R324" t="n">
         <v>0.005877551020408163</v>
@@ -31322,10 +31322,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P325" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q325" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R325" t="n">
         <v>0.009795918367346938</v>
@@ -31417,10 +31417,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P326" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q326" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="R326" t="n">
         <v>0.004897959183673469</v>
@@ -31512,10 +31512,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P327" t="n">
-        <v>7.308448</v>
+        <v>1.827112</v>
       </c>
       <c r="Q327" t="n">
-        <v>1.51984</v>
+        <v>0.37996</v>
       </c>
       <c r="R327" t="n">
         <v>0.005877551020408163</v>
@@ -31607,10 +31607,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P328" t="n">
-        <v>5.9472</v>
+        <v>1.9824</v>
       </c>
       <c r="Q328" t="n">
-        <v>1.9824</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R328" t="n">
         <v>0.002448979591836735</v>
@@ -31702,10 +31702,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P329" t="n">
-        <v>6.67408</v>
+        <v>1.66852</v>
       </c>
       <c r="Q329" t="n">
-        <v>2.11456</v>
+        <v>0.5286400000000001</v>
       </c>
       <c r="R329" t="n">
         <v>0.002448979591836735</v>
@@ -31797,10 +31797,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P330" t="n">
-        <v>4.2952</v>
+        <v>0.85904</v>
       </c>
       <c r="Q330" t="n">
-        <v>1.38768</v>
+        <v>0.277536</v>
       </c>
       <c r="R330" t="n">
         <v>0.006857142857142857</v>
@@ -31892,10 +31892,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P331" t="n">
-        <v>7.268800000000001</v>
+        <v>1.8172</v>
       </c>
       <c r="Q331" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R331" t="n">
         <v>0.0072</v>
@@ -31987,10 +31987,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P332" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q332" t="n">
-        <v>3.9648</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="R332" t="n">
         <v>0.003918367346938775</v>
@@ -32082,10 +32082,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P333" t="n">
-        <v>11.2336</v>
+        <v>2.8084</v>
       </c>
       <c r="Q333" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R333" t="n">
         <v>0.009795918367346938</v>
@@ -32177,10 +32177,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P334" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q334" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R334" t="n">
         <v>0.003918367346938775</v>
@@ -32272,10 +32272,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P335" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q335" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R335" t="n">
         <v>0.009795918367346938</v>
@@ -32367,10 +32367,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P336" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q336" t="n">
-        <v>5.9472</v>
+        <v>1.4868</v>
       </c>
       <c r="R336" t="n">
         <v>0.007346938775510204</v>
@@ -32462,10 +32462,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P337" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q337" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R337" t="n">
         <v>0</v>
@@ -32557,10 +32557,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P338" t="n">
-        <v>11.8944</v>
+        <v>2.9736</v>
       </c>
       <c r="Q338" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R338" t="n">
         <v>0.002448979591836735</v>
@@ -32652,10 +32652,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P339" t="n">
-        <v>9.911999999999999</v>
+        <v>4.956</v>
       </c>
       <c r="Q339" t="n">
-        <v>1.9824</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="R339" t="n">
         <v>0.007346938775510204</v>
@@ -32747,10 +32747,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P340" t="n">
-        <v>3.304</v>
+        <v>1.652</v>
       </c>
       <c r="Q340" t="n">
-        <v>1.3216</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="R340" t="n">
         <v>0</v>
@@ -32842,10 +32842,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P341" t="n">
-        <v>6.608</v>
+        <v>3.304</v>
       </c>
       <c r="Q341" t="n">
-        <v>3.304</v>
+        <v>1.652</v>
       </c>
       <c r="R341" t="n">
         <v>0.009795918367346938</v>
@@ -33032,10 +33032,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P343" t="n">
-        <v>9.911999999999999</v>
+        <v>3.304</v>
       </c>
       <c r="Q343" t="n">
-        <v>1.3216</v>
+        <v>0.4405333333333333</v>
       </c>
       <c r="R343" t="n">
         <v>0.009795918367346938</v>
@@ -33127,10 +33127,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P344" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="Q344" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R344" t="n">
         <v>0.009795918367346938</v>
@@ -33222,10 +33222,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P345" t="n">
-        <v>10.5728</v>
+        <v>2.6432</v>
       </c>
       <c r="Q345" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R345" t="n">
         <v>0.003918367346938775</v>
@@ -33317,10 +33317,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P346" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="Q346" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R346" t="n">
         <v>0</v>
@@ -33412,10 +33412,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P347" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="Q347" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R347" t="n">
         <v>0.002448979591836735</v>
@@ -33507,10 +33507,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P348" t="n">
-        <v>10.5728</v>
+        <v>2.6432</v>
       </c>
       <c r="Q348" t="n">
-        <v>1.05728</v>
+        <v>0.2643200000000001</v>
       </c>
       <c r="R348" t="n">
         <v>0.004653061224489796</v>
@@ -33602,10 +33602,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P349" t="n">
-        <v>5.02208</v>
+        <v>1.25552</v>
       </c>
       <c r="Q349" t="n">
-        <v>0.4625599999999999</v>
+        <v>0.11564</v>
       </c>
       <c r="R349" t="n">
         <v>0</v>
@@ -33697,10 +33697,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P350" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q350" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R350" t="n">
         <v>0</v>
@@ -33792,10 +33792,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P351" t="n">
-        <v>8.590400000000001</v>
+        <v>2.1476</v>
       </c>
       <c r="Q351" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="R351" t="n">
         <v>0.007346938775510204</v>
@@ -33887,10 +33887,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P352" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q352" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R352" t="n">
         <v>0.009795918367346938</v>
@@ -33982,10 +33982,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P353" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q353" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R353" t="n">
         <v>0.004897959183673469</v>
@@ -34077,10 +34077,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P354" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="Q354" t="n">
-        <v>0.7929599999999999</v>
+        <v>0.19824</v>
       </c>
       <c r="R354" t="n">
         <v>0.004408163265306123</v>
@@ -34172,10 +34172,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P355" t="n">
-        <v>6.608</v>
+        <v>2.202666666666667</v>
       </c>
       <c r="Q355" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.2202666666666666</v>
       </c>
       <c r="R355" t="n">
         <v>0.004897959183673469</v>
@@ -34267,10 +34267,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P356" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q356" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R356" t="n">
         <v>0.003918367346938775</v>
@@ -34362,10 +34362,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P357" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="Q357" t="n">
-        <v>0.9912000000000001</v>
+        <v>0.2478</v>
       </c>
       <c r="R357" t="n">
         <v>0.009795918367346938</v>
@@ -34457,10 +34457,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P358" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q358" t="n">
-        <v>3.9648</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="R358" t="n">
         <v>0</v>
@@ -34552,10 +34552,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P359" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q359" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R359" t="n">
         <v>0.004897959183673469</v>
@@ -34647,10 +34647,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P360" t="n">
-        <v>13.216</v>
+        <v>4.405333333333333</v>
       </c>
       <c r="Q360" t="n">
-        <v>3.304</v>
+        <v>1.101333333333333</v>
       </c>
       <c r="R360" t="n">
         <v>0</v>
@@ -34742,10 +34742,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P361" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q361" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R361" t="n">
         <v>0.004897959183673469</v>
@@ -34837,10 +34837,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P362" t="n">
-        <v>8.06176</v>
+        <v>2.01544</v>
       </c>
       <c r="Q362" t="n">
-        <v>5.748959999999999</v>
+        <v>1.43724</v>
       </c>
       <c r="R362" t="n">
         <v>0.01033469387755102</v>
@@ -34932,10 +34932,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P363" t="n">
-        <v>7.929600000000001</v>
+        <v>2.6432</v>
       </c>
       <c r="Q363" t="n">
-        <v>0.9912000000000001</v>
+        <v>0.3304</v>
       </c>
       <c r="R363" t="n">
         <v>0.002938775510204081</v>
@@ -35027,10 +35027,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P364" t="n">
-        <v>13.216</v>
+        <v>3.304</v>
       </c>
       <c r="Q364" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="R364" t="n">
         <v>0.003428571428571428</v>
@@ -35122,10 +35122,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P365" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q365" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R365" t="n">
         <v>0.004897959183673469</v>
@@ -35217,10 +35217,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P366" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q366" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R366" t="n">
         <v>0.003918367346938775</v>
@@ -35312,10 +35312,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P367" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q367" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R367" t="n">
         <v>0.004897959183673469</v>
@@ -35407,10 +35407,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P368" t="n">
-        <v>9.911999999999999</v>
+        <v>3.304</v>
       </c>
       <c r="Q368" t="n">
-        <v>6.608</v>
+        <v>2.202666666666667</v>
       </c>
       <c r="R368" t="n">
         <v>0.008816326530612246</v>
@@ -35502,10 +35502,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P369" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q369" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R369" t="n">
         <v>0.003918367346938775</v>
@@ -35597,10 +35597,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P370" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q370" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R370" t="n">
         <v>0.004897959183673469</v>
@@ -35692,10 +35692,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P371" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q371" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R371" t="n">
         <v>0.004897959183673469</v>
@@ -35787,10 +35787,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P372" t="n">
-        <v>11.2336</v>
+        <v>2.8084</v>
       </c>
       <c r="Q372" t="n">
-        <v>1.3216</v>
+        <v>0.3304</v>
       </c>
       <c r="R372" t="n">
         <v>0.007346938775510204</v>
@@ -35882,10 +35882,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P373" t="n">
-        <v>7.929600000000001</v>
+        <v>3.9648</v>
       </c>
       <c r="Q373" t="n">
-        <v>1.9824</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="R373" t="n">
         <v>0.009795918367346938</v>
@@ -35977,10 +35977,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P374" t="n">
-        <v>12.02656</v>
+        <v>3.00664</v>
       </c>
       <c r="Q374" t="n">
-        <v>1.652</v>
+        <v>0.413</v>
       </c>
       <c r="R374" t="n">
         <v>0.002938775510204081</v>
@@ -36072,10 +36072,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P375" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q375" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R375" t="n">
         <v>0.002448979591836735</v>
@@ -36167,10 +36167,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P376" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q376" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R376" t="n">
         <v>0</v>
@@ -36262,10 +36262,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P377" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q377" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R377" t="n">
         <v>0.01224489795918367</v>
@@ -36357,10 +36357,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P378" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q378" t="n">
-        <v>5.2864</v>
+        <v>1.3216</v>
       </c>
       <c r="R378" t="n">
         <v>0.003918367346938775</v>
@@ -36452,10 +36452,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P379" t="n">
-        <v>7.00448</v>
+        <v>1.75112</v>
       </c>
       <c r="Q379" t="n">
-        <v>1.51984</v>
+        <v>0.37996</v>
       </c>
       <c r="R379" t="n">
         <v>0</v>
@@ -36547,10 +36547,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P380" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q380" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R380" t="n">
         <v>0.004897959183673469</v>
@@ -36642,10 +36642,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P381" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q381" t="n">
-        <v>3.9648</v>
+        <v>0.9912000000000001</v>
       </c>
       <c r="R381" t="n">
         <v>0.004897959183673469</v>
@@ -36737,10 +36737,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P382" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q382" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R382" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P383" t="n">
-        <v>11.8944</v>
+        <v>2.9736</v>
       </c>
       <c r="Q383" t="n">
-        <v>0.3304</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="R383" t="n">
         <v>0.004897959183673469</v>
@@ -36927,10 +36927,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P384" t="n">
-        <v>10.0772</v>
+        <v>3.359066666666667</v>
       </c>
       <c r="Q384" t="n">
-        <v>1.25552</v>
+        <v>0.4185066666666667</v>
       </c>
       <c r="R384" t="n">
         <v>0.003967346938775511</v>
@@ -37022,10 +37022,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P385" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q385" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R385" t="n">
         <v>0.002448979591836735</v>
@@ -37117,10 +37117,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P386" t="n">
-        <v>8.762207999999999</v>
+        <v>2.190552</v>
       </c>
       <c r="Q386" t="n">
-        <v>3.878896</v>
+        <v>0.969724</v>
       </c>
       <c r="R386" t="n">
         <v>0.004897959183673469</v>
@@ -37212,10 +37212,10 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="P387" t="n">
-        <v>5.2864</v>
+        <v>1.762133333333333</v>
       </c>
       <c r="Q387" t="n">
-        <v>1.3216</v>
+        <v>0.4405333333333333</v>
       </c>
       <c r="R387" t="n">
         <v>0.001469387755102041</v>
@@ -37307,10 +37307,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P388" t="n">
-        <v>5.418559999999999</v>
+        <v>1.806186666666666</v>
       </c>
       <c r="Q388" t="n">
-        <v>1.45376</v>
+        <v>0.4845866666666667</v>
       </c>
       <c r="R388" t="n">
         <v>0.003918367346938775</v>
@@ -37402,10 +37402,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P389" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q389" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R389" t="n">
         <v>0.009795918367346938</v>
@@ -37497,10 +37497,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P390" t="n">
-        <v>2.9736</v>
+        <v>0.9911999999999999</v>
       </c>
       <c r="Q390" t="n">
-        <v>0.3964799999999999</v>
+        <v>0.13216</v>
       </c>
       <c r="R390" t="n">
         <v>0.004897959183673469</v>
@@ -37592,10 +37592,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P391" t="n">
-        <v>6.608</v>
+        <v>2.202666666666667</v>
       </c>
       <c r="Q391" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.2202666666666666</v>
       </c>
       <c r="R391" t="n">
         <v>0.002448979591836735</v>
@@ -37687,10 +37687,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P392" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q392" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R392" t="n">
         <v>0.002448979591836735</v>
@@ -37782,10 +37782,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P393" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q393" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R393" t="n">
         <v>0.004897959183673469</v>
@@ -37877,10 +37877,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P394" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q394" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R394" t="n">
         <v>0.002546938775510204</v>
@@ -37972,10 +37972,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P395" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q395" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R395" t="n">
         <v>0.007346938775510204</v>
@@ -38067,10 +38067,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P396" t="n">
-        <v>5.748959999999999</v>
+        <v>1.43724</v>
       </c>
       <c r="Q396" t="n">
-        <v>1.85024</v>
+        <v>0.4625599999999999</v>
       </c>
       <c r="R396" t="n">
         <v>0.001959183673469388</v>
@@ -38162,10 +38162,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P397" t="n">
-        <v>8.590400000000001</v>
+        <v>2.1476</v>
       </c>
       <c r="Q397" t="n">
-        <v>1.9824</v>
+        <v>0.4956</v>
       </c>
       <c r="R397" t="n">
         <v>0.001469387755102041</v>
@@ -38257,10 +38257,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P398" t="n">
-        <v>7.929600000000001</v>
+        <v>1.9824</v>
       </c>
       <c r="Q398" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R398" t="n">
         <v>0.002448979591836735</v>
@@ -38352,10 +38352,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P399" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q399" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R399" t="n">
         <v>0.004897959183673469</v>
@@ -38447,10 +38447,10 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="P400" t="n">
-        <v>6.608</v>
+        <v>1.652</v>
       </c>
       <c r="Q400" t="n">
-        <v>0.85904</v>
+        <v>0.21476</v>
       </c>
       <c r="R400" t="n">
         <v>0.004163265306122449</v>
@@ -38542,10 +38542,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P401" t="n">
-        <v>9.911999999999999</v>
+        <v>2.478</v>
       </c>
       <c r="Q401" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="R401" t="n">
         <v>0.003918367346938775</v>
@@ -38637,10 +38637,10 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="P402" t="n">
-        <v>3.27096</v>
+        <v>0.81774</v>
       </c>
       <c r="Q402" t="n">
-        <v>1.011024</v>
+        <v>0.252756</v>
       </c>
       <c r="R402" t="n">
         <v>0.004261224489795918</v>
@@ -38732,10 +38732,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P403" t="n">
-        <v>3.304</v>
+        <v>0.826</v>
       </c>
       <c r="Q403" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="R403" t="n">
         <v>0.004897959183673469</v>
@@ -38827,10 +38827,10 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="P404" t="n">
-        <v>1.9824</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="Q404" t="n">
-        <v>0.6608000000000001</v>
+        <v>0.2202666666666666</v>
       </c>
       <c r="R404" t="n">
         <v>0.007346938775510204</v>
